--- a/To-do Liste.xlsx
+++ b/To-do Liste.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\Desktop\Wiss Sachen\3. Semester\Module 294\Aufgaben\8B-SideQuest\LB-Projekt-M294-295_Ethan-Shrestha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3753C41B-33E4-4087-86F3-C959BE8381BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1FEA77-4250-4EC4-8A57-6655E99D2C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1128" windowWidth="14928" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="sUMME">Tabelle1!$C$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>To-do</t>
   </si>
@@ -117,6 +120,30 @@
   </si>
   <si>
     <t>Aktualisieren</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Front-End Vorbereitung</t>
+  </si>
+  <si>
+    <t>Routes für die Navigation</t>
+  </si>
+  <si>
+    <t>HTML-Skizze</t>
+  </si>
+  <si>
+    <t>CSS-Styles</t>
+  </si>
+  <si>
+    <t>Back-End Vorbereitung</t>
+  </si>
+  <si>
+    <t>Restschnittstellen</t>
+  </si>
+  <si>
+    <t>Datenbanksystem</t>
   </si>
 </sst>
 </file>
@@ -178,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -201,11 +228,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -215,6 +257,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -495,17 +543,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" activeCellId="1" sqref="B9 D13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53.109375" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" customWidth="1"/>
   </cols>
@@ -517,6 +565,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
       <c r="D1" s="6"/>
       <c r="F1" t="s">
         <v>2</v>
@@ -536,7 +587,9 @@
         <v>7</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6">
+        <v>100</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="F3" s="3" t="s">
         <v>5</v>
@@ -547,7 +600,9 @@
         <v>8</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>100</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="F4" s="2" t="s">
         <v>4</v>
@@ -560,7 +615,9 @@
       <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <v>70</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -568,14 +625,18 @@
         <v>10</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -584,21 +645,27 @@
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -607,95 +674,241 @@
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C12" s="6">
+        <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11)/900*100</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="C24" s="6">
+        <f>(C20+C21+C22+C23)/400*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="6">
+        <f>(C27+C28+C29+C30+C31+C32)/600*100</f>
+        <v>38.333333333333336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="6">
+        <f>(C35+C36+C37)/300*100</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="6"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <f>(C40+C41+C42+C43)/400*100</f>
+        <v>27.500000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/To-do Liste.xlsx
+++ b/To-do Liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\Desktop\Wiss Sachen\3. Semester\Module 294\Aufgaben\8B-SideQuest\LB-Projekt-M294-295_Ethan-Shrestha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1FEA77-4250-4EC4-8A57-6655E99D2C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE185C32-16DE-484B-9C79-3B1AA2B86DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4644" yWindow="528" windowWidth="14928" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
